--- a/data/long_razon/P23_11-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_11-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-21,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-75,96; 140,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-88,99; 491,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 243,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 190,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,24; 97,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 148,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-32,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>171,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-41,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,74; 86,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 589,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 10,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 159,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,23; 6,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,91; 225,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-50,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-79,5; -10,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 124,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 50,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 62,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,23; 6,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 54,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 47,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 54,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 135,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 111,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 70,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 63,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-20,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-60,35; 43,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 127,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-53,92; 51,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 68,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,28; 29,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 66,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-44,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,17; 42,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 116,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,33; -0,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 156,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,63; -8,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 91,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-34,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -8,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 70,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 17,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 52,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,04; -2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,55; 47,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_11-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_11-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.2202043337663421</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5266752018650739</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.333159758501137</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.04561634913505582</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.4220176385634875</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.09580696257483688</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2256419136774253</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.03917999541022013</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.06805715688527912</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2357344642361198</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.8085239863955267</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.04325979729992246</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.7784716230599867</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.8160212094750977</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.7789822862160302</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7427602603697456</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4381468291566813</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5500258223051184</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.507624631998413</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.8069325061409651</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.4401798905662779</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.4119781586317747</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1862547423586758</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.61694618821974</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,38 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.208165008425075</v>
+      </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>2.960047731729965</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.603058917262481</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.886432127924409</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.174707236345341</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>6.305547466957409</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.236491927518058</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>2.13065190215621</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>2.885404522258443</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.564872034804739</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +791,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.3839547948374965</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.572382427183522</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6949405471994941</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.110585088065962</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.3827133829317224</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.6139277656426456</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.2784603973051988</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>1.019664141105604</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3831703323566956</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.9826990137926698</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.197776881896501</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1.714715715010143</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +835,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7955483748882557</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.0357935224460759</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.6927388861392566</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1392245611682061</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6905390906471286</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.08671996157773963</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.6024650314702347</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.01139941324523991</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.644759543446605</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.2770387673869137</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.4777403154298742</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.2886923748698533</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +879,40 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.5353329286242958</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.207084690880174</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.564816011409119</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>0.1599887739322214</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.857186753618078</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.301791139505135</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>3.276311663090136</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.06027389548002134</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>2.484011329698268</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.959691598192098</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>4.848794755722601</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +925,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.5176207567694665</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1506194532853678</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3438246469621761</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.7964280518721825</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.0056846631376266</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.08247733938085522</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.04139809327737413</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.9474724892281861</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2413243458462931</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1072434459756837</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1665304678523158</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.8658468518873191</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +969,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.8019304788101915</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4212132288173492</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2229307124603104</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.09088134916528855</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2885298091525534</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2470441762680598</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3235055650909542</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.03327113914761134</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5053567239814128</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.1929421323132229</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.1905284078065489</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.1897497804778337</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1013,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.06299728554190227</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.253066593281564</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.647486711803001</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.582754270057634</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.5593271633329226</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.5697306111861233</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.6043302551549845</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>2.694009482629087</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.07536483886360677</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.5321445588481835</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.6264473959865036</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.861395063798104</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1061,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1627954481229809</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1382441389911647</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6252306568038734</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.06652128963754134</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.6417367680933745</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.5145239812064448</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1231596558810071</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.01373840076060776</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2582891644144147</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2500655777540172</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.3338869145323252</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.04223483976188021</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1105,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5872301089820841</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.58808944594278</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.09541526317784045</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5555270502039753</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.03819285549986022</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.06960443974733431</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2080684912439403</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4281565353936754</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.134247802185612</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1104797518959497</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.02674808535994009</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.3958300427240778</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1149,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.5023153434372172</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.522883426938923</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.215175092142718</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7736579047842069</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.357182062167285</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.121090238714848</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.6437558940017268</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.6878043154450946</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.740645962448475</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.6844447617684761</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.018279623100953</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.4563698316055669</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1197,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.194072174298595</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.2644426710815594</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.9696127836067681</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.01280973743977728</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.1008649487643514</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.1025113930261641</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.210541051507275</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.2511330883868392</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.1466655586578652</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.160955133443692</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.1577833878573216</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.1379594766969618</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1241,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.5501170403262744</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.3123653559713062</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.04907442098423329</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.5407603929115909</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4895429668876329</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.2753586978866034</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.5599683812936335</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.3129125171557287</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.4467883779803164</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.2220132240749415</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.2526600660290835</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.2796431975929585</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1285,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.5644878264003246</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.454002050590345</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.101507951415463</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.17208077307133</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.8151401387814771</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.8008624795082049</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.5151269553326284</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.092270722861488</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.3515099450938586</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.6978912302509819</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.8073246647995803</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.795800832029412</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1333,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.417424141089256</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.03168269320753642</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.430589966434143</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.4857192154083414</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.4650377836952779</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.239089189981106</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.2641460077425226</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.07309800576383943</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.4456826236311063</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.1441348907703981</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.5727111132070065</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.2741826591797224</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1377,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.7874412444164507</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.5468415667229953</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.3986725867762772</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.8640248537778579</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.7356276370361881</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.3465450469401122</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.4357196544980352</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.7691732899742434</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.691700655877558</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.3391745010387681</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.2119561587601173</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.6758673492127828</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1421,40 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.4369221620877287</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.400522529949561</v>
+      </c>
       <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="n">
+        <v>1.080927144263031</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.044225073609448</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.453598611574028</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>2.120139048438643</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>2.231054137586987</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>-0.03777858983153938</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.8943024194555772</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>2.109724698315232</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.6132307130614779</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1467,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.3415551317188682</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2700608897717076</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7798429087299175</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2645669700979346</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.02263475751946323</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.2756512078873383</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.01720838965541389</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.3331764323078327</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.1678721567388779</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.2734923390648492</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.3136086949616976</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.2982073337047049</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1511,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.5339435485119841</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.06385646052344386</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.09738889674334181</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.09771885001195464</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.2051152219784266</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0.05545007358861131</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.1918061756838896</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.01477330758468107</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.3164463831482885</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.08046086085850654</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.04787225565276945</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.04462655518589154</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1555,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.1092305126500903</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.7453157169814725</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.678003384045089</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.8579529307432305</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2124511389135438</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.5525232117405264</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.2749419726936736</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.79213303624549</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.02542551903228777</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.5182488392279024</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.6929841820425273</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.6475063302484874</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
